--- a/inputs/data_raw/Data_BART_Demographics_20190630.xlsx
+++ b/inputs/data_raw/Data_BART_Demographics_20190630.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_BART\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C658860A-3E0E-4690-8B68-2FCA9DDEA1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA33B29B-5A8F-4D5D-91BF-64E5BF3560BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="723" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" tabRatio="723" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="actives_misc" sheetId="19" r:id="rId1"/>
@@ -461,9 +461,6 @@
   </si>
   <si>
     <t>D7:L28</t>
-  </si>
-  <si>
-    <t>misc_t1</t>
   </si>
   <si>
     <t>sfty</t>
@@ -1194,7 +1191,10 @@
     </r>
   </si>
   <si>
-    <t>benefit_avg</t>
+    <t>misc</t>
+  </si>
+  <si>
+    <t>benefit</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1203,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;&quot;$&quot;\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0;&quot;$&quot;\-#,##0"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1629,16 +1629,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1662,7 +1662,7 @@
     <xf numFmtId="3" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1719,14 +1719,14 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1751,15 +1751,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>372356</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>10648</xdr:rowOff>
+      <xdr:colOff>429506</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>86848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1782,7 +1782,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8782050" y="114300"/>
+          <a:off x="8839200" y="0"/>
           <a:ext cx="6315956" cy="7935448"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1849,15 +1849,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>10417</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>86769</xdr:rowOff>
+      <xdr:colOff>48517</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>162969</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1880,7 +1880,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8343900" y="552450"/>
+          <a:off x="8382000" y="247650"/>
           <a:ext cx="6392167" cy="7382919"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2501,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB403699-3710-4596-97B0-B33CB2C2CC4F}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2528,12 +2528,12 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>20190630</v>
@@ -3288,56 +3288,56 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.25">
       <c r="B5" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="22.5">
       <c r="B11" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="D11" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="E11" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="F11" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="G11" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="83" t="s">
+      <c r="H11" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="84" t="s">
+      <c r="I11" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="83" t="s">
-        <v>78</v>
-      </c>
       <c r="J11" s="67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="39">
         <v>0</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="45">
         <v>3</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="45">
         <v>16</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="45">
         <v>14</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="45">
         <v>6</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="45">
         <v>9</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="45">
         <v>8</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="45">
         <v>6</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="45">
         <v>3</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="21" spans="2:10" ht="22.5">
       <c r="B21" s="89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="52">
         <v>2</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="59">
         <v>67</v>
@@ -3656,46 +3656,46 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="22.5">
       <c r="B29" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="D29" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="E29" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="83" t="s">
+      <c r="F29" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="G29" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="83" t="s">
+      <c r="H29" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="84" t="s">
+      <c r="I29" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="I29" s="83" t="s">
-        <v>78</v>
-      </c>
       <c r="J29" s="67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="39">
         <v>0</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="45">
         <v>2</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="45">
         <v>4</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="45">
         <v>3</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="45">
         <v>5</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="45">
         <v>8</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="45">
         <v>6</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="45">
         <v>2</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="45">
         <v>1</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="39" spans="2:10" ht="22.5">
       <c r="B39" s="89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="52">
         <v>1</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="59">
         <v>32</v>
@@ -4026,7 +4026,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4052,12 +4052,12 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>20190630</v>
@@ -4798,8 +4798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F61A781-B9B1-4F2B-BAEA-4245EA889B53}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4819,7 +4819,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4827,12 +4827,12 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>20190630</v>
@@ -4852,22 +4852,22 @@
         <v>36</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="J6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="K6" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="L6" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4875,7 +4875,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="23">
         <v>27</v>
@@ -4908,7 +4908,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="23">
         <v>32</v>
@@ -4941,7 +4941,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="23">
         <v>37</v>
@@ -4974,7 +4974,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="23">
         <v>42</v>
@@ -5007,7 +5007,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="23">
         <v>47</v>
@@ -5040,7 +5040,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="23">
         <v>52</v>
@@ -5073,7 +5073,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="23">
         <v>57</v>
@@ -5106,7 +5106,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="23">
         <v>62</v>
@@ -5139,7 +5139,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="23">
         <v>67</v>
@@ -5172,7 +5172,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="23">
         <v>72</v>
@@ -5205,7 +5205,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="23">
         <v>77</v>
@@ -5238,7 +5238,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="23">
         <v>82</v>
@@ -5271,13 +5271,13 @@
         <v>30</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="23">
         <v>87</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="26">
         <v>148</v>
@@ -5715,7 +5715,7 @@
         <v>87</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" s="28">
         <v>31697</v>
@@ -5753,29 +5753,29 @@
       <c r="P34" s="14"/>
     </row>
     <row r="35" spans="6:16">
-      <c r="F35" s="101"/>
+      <c r="F35" s="99"/>
       <c r="P35" s="15"/>
     </row>
     <row r="36" spans="6:16">
-      <c r="F36" s="101"/>
+      <c r="F36" s="99"/>
     </row>
     <row r="37" spans="6:16">
-      <c r="F37" s="101"/>
+      <c r="F37" s="99"/>
     </row>
     <row r="38" spans="6:16">
-      <c r="F38" s="101"/>
+      <c r="F38" s="99"/>
     </row>
     <row r="39" spans="6:16">
-      <c r="F39" s="101"/>
+      <c r="F39" s="99"/>
     </row>
     <row r="40" spans="6:16">
-      <c r="F40" s="101"/>
+      <c r="F40" s="99"/>
     </row>
     <row r="41" spans="6:16">
-      <c r="F41" s="101"/>
+      <c r="F41" s="99"/>
     </row>
     <row r="42" spans="6:16">
-      <c r="F42" s="101"/>
+      <c r="F42" s="99"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5790,8 +5790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FE28A6-DA79-4C04-860D-C3B0D186CA6A}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5810,7 +5810,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5818,12 +5818,12 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>20190630</v>
@@ -5843,22 +5843,22 @@
         <v>36</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="J6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="K6" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="L6" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5866,7 +5866,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="23">
         <v>27</v>
@@ -5899,7 +5899,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="23">
         <v>32</v>
@@ -5932,7 +5932,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="23">
         <v>37</v>
@@ -5965,7 +5965,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="23">
         <v>42</v>
@@ -5998,7 +5998,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="23">
         <v>47</v>
@@ -6031,7 +6031,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="23">
         <v>52</v>
@@ -6064,7 +6064,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="23">
         <v>57</v>
@@ -6097,7 +6097,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="23">
         <v>62</v>
@@ -6130,7 +6130,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="23">
         <v>67</v>
@@ -6163,7 +6163,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="23">
         <v>72</v>
@@ -6196,7 +6196,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="23">
         <v>77</v>
@@ -6229,7 +6229,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="23">
         <v>82</v>
@@ -6262,13 +6262,13 @@
         <v>30</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="23">
         <v>87</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="26">
         <v>1</v>
@@ -6706,7 +6706,7 @@
         <v>87</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" s="28">
         <v>13219</v>
@@ -6769,7 +6769,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6777,43 +6777,43 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="22.5">
       <c r="B8" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="D8" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="E8" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="F8" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="G8" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="I8" s="33" t="s">
         <v>77</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1">
       <c r="B9" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="39">
         <v>52</v>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1">
       <c r="B10" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="45">
         <v>169</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1">
       <c r="B11" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="45">
         <v>284</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
       <c r="B12" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="45">
         <v>313</v>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1">
       <c r="B13" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="45">
         <v>275</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
       <c r="B14" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="45">
         <v>211</v>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1">
       <c r="B15" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="45">
         <v>160</v>
@@ -6995,7 +6995,7 @@
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1">
       <c r="B16" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="45">
         <v>143</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="17" spans="2:9" ht="16.5" customHeight="1">
       <c r="B17" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="45">
         <v>73</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="18" spans="2:9" ht="16.5" customHeight="1">
       <c r="B18" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="52">
         <v>14</v>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="19" spans="2:9" ht="16.5" customHeight="1">
       <c r="B19" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="57">
         <v>1694</v>
@@ -7098,13 +7098,13 @@
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="99" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
+      <c r="B20" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
       <c r="G20" s="62"/>
       <c r="H20" s="62"/>
       <c r="I20" s="62"/>
@@ -7112,18 +7112,18 @@
     <row r="21" spans="2:9">
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
-      <c r="D21" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
+      <c r="D21" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
@@ -7132,38 +7132,38 @@
       <c r="G22" s="62"/>
       <c r="H22" s="62"/>
       <c r="I22" s="65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="19.5" customHeight="1">
       <c r="B23" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="66" t="s">
         <v>93</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" s="66" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="19.5" customHeight="1">
       <c r="B24" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="69">
         <v>66070</v>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="25" spans="2:9" ht="19.5" customHeight="1">
       <c r="B25" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="73">
         <v>74239</v>
@@ -7215,7 +7215,7 @@
     </row>
     <row r="26" spans="2:9" ht="19.5" customHeight="1">
       <c r="B26" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="73">
         <v>78047</v>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="27" spans="2:9" ht="19.5" customHeight="1">
       <c r="B27" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="73">
         <v>86204</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="28" spans="2:9" ht="19.5" customHeight="1">
       <c r="B28" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="73">
         <v>91734</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
       <c r="B29" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="73">
         <v>94359</v>
@@ -7319,7 +7319,7 @@
     </row>
     <row r="30" spans="2:9" ht="19.5" customHeight="1">
       <c r="B30" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="73">
         <v>91687</v>
@@ -7345,7 +7345,7 @@
     </row>
     <row r="31" spans="2:9" ht="19.5" customHeight="1">
       <c r="B31" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="73">
         <v>99357</v>
@@ -7371,7 +7371,7 @@
     </row>
     <row r="32" spans="2:9" ht="19.5" customHeight="1">
       <c r="B32" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="73">
         <v>99678</v>
@@ -7397,7 +7397,7 @@
     </row>
     <row r="33" spans="2:9" ht="19.5" customHeight="1">
       <c r="B33" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="77">
         <v>90008</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="34" spans="2:9" ht="19.5" customHeight="1">
       <c r="B34" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="80">
         <v>87178</v>
@@ -7483,68 +7483,68 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25">
       <c r="B5" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="96" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="22.5">
       <c r="B15" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="D15" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="E15" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="F15" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="G15" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="83" t="s">
+      <c r="H15" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="83" t="s">
+      <c r="I15" s="83" t="s">
         <v>77</v>
-      </c>
-      <c r="I15" s="83" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="42">
         <v>1</v>
@@ -7570,7 +7570,7 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="48">
         <v>15</v>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="48">
         <v>19</v>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="48">
         <v>11</v>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="48">
         <v>6</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="48">
         <v>11</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="48">
         <v>3</v>
@@ -7726,7 +7726,7 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="48">
         <v>1</v>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="48">
         <v>0</v>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="54">
         <v>0</v>
@@ -7804,7 +7804,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="98">
         <v>67</v>
@@ -7830,43 +7830,43 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="22.5">
       <c r="B33" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="D33" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="E33" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="83" t="s">
+      <c r="F33" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="G33" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="83" t="s">
+      <c r="H33" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="83" t="s">
-        <v>77</v>
-      </c>
       <c r="I33" s="67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="69">
         <v>88649</v>
@@ -7892,7 +7892,7 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="74">
         <v>92280</v>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="74">
         <v>107473</v>
@@ -7944,7 +7944,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="74">
         <v>111070</v>
@@ -7970,7 +7970,7 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="74">
         <v>103110</v>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="74">
         <v>120539</v>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="74">
         <v>116630</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="74">
         <v>112825</v>
@@ -8074,7 +8074,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="46">
         <v>0</v>
@@ -8100,7 +8100,7 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="53">
         <v>0</v>
@@ -8126,7 +8126,7 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="80">
         <v>106625</v>
@@ -8179,43 +8179,43 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="35.25">
       <c r="B6" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="E6" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="F6" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="G6" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="H6" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="67" t="s">
-        <v>107</v>
-      </c>
       <c r="I6" s="83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="40">
         <v>0</v>
@@ -8241,7 +8241,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="46">
         <v>0</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="46">
         <v>0</v>
@@ -8293,7 +8293,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="46">
         <v>0</v>
@@ -8319,7 +8319,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="46">
         <v>0</v>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="46">
         <v>30</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="46">
         <v>133</v>
@@ -8397,7 +8397,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="46">
         <v>347</v>
@@ -8423,7 +8423,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="46">
         <v>579</v>
@@ -8449,7 +8449,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="46">
         <v>663</v>
@@ -8475,7 +8475,7 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="46">
         <v>389</v>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="46">
         <v>193</v>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="53">
         <v>148</v>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="93">
         <v>2482</v>
@@ -8579,43 +8579,43 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="35.25">
       <c r="B27" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="83" t="s">
+      <c r="F27" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="G27" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="83" t="s">
+      <c r="H27" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="67" t="s">
-        <v>107</v>
-      </c>
       <c r="I27" s="83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="69">
         <v>0</v>
@@ -8641,7 +8641,7 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="46">
         <v>0</v>
@@ -8667,7 +8667,7 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="46">
         <v>0</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="46">
         <v>0</v>
@@ -8719,7 +8719,7 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="46">
         <v>0</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="74">
         <v>30401</v>
@@ -8771,7 +8771,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="74">
         <v>37382</v>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="74">
         <v>46727</v>
@@ -8823,7 +8823,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="74">
         <v>49087</v>
@@ -8849,7 +8849,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="74">
         <v>48666</v>
@@ -8875,7 +8875,7 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="74">
         <v>42857</v>
@@ -8901,7 +8901,7 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="74">
         <v>42371</v>
@@ -8927,7 +8927,7 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="78">
         <v>31697</v>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="80">
         <v>45256</v>
@@ -9006,48 +9006,48 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25">
       <c r="B5" s="95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="35.25">
       <c r="B10" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="E10" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="F10" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="G10" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="H10" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="67" t="s">
-        <v>107</v>
-      </c>
       <c r="I10" s="83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="40">
         <v>0</v>
@@ -9073,7 +9073,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="46">
         <v>0</v>
@@ -9099,7 +9099,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="46">
         <v>0</v>
@@ -9125,7 +9125,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="46">
         <v>0</v>
@@ -9151,7 +9151,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="46">
         <v>0</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="46">
         <v>20</v>
@@ -9203,7 +9203,7 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="46">
         <v>42</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="46">
         <v>36</v>
@@ -9255,7 +9255,7 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="46">
         <v>34</v>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="46">
         <v>26</v>
@@ -9307,7 +9307,7 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" s="46">
         <v>10</v>
@@ -9333,7 +9333,7 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="46">
         <v>5</v>
@@ -9359,7 +9359,7 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="53">
         <v>1</v>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="58">
         <v>174</v>
@@ -9411,43 +9411,43 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="35.25">
       <c r="B31" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="83" t="s">
+      <c r="F31" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="G31" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="83" t="s">
+      <c r="H31" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="67" t="s">
-        <v>107</v>
-      </c>
       <c r="I31" s="83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="69">
         <v>0</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="46">
         <v>0</v>
@@ -9499,7 +9499,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="46">
         <v>0</v>
@@ -9525,7 +9525,7 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="46">
         <v>0</v>
@@ -9551,7 +9551,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="46">
         <v>0</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="74">
         <v>60774</v>
@@ -9603,7 +9603,7 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="74">
         <v>82880</v>
@@ -9629,7 +9629,7 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="74">
         <v>71034</v>
@@ -9655,7 +9655,7 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="74">
         <v>57993</v>
@@ -9681,7 +9681,7 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" s="74">
         <v>54589</v>
@@ -9707,7 +9707,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="74">
         <v>30475</v>
@@ -9733,7 +9733,7 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="74">
         <v>34932</v>
@@ -9759,7 +9759,7 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="78">
         <v>13219</v>
@@ -9785,7 +9785,7 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" s="80">
         <v>64008</v>
@@ -9838,56 +9838,56 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25">
       <c r="B4" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="22.5">
       <c r="B10" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="D10" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="E10" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="F10" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="G10" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="H10" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="84" t="s">
+      <c r="I10" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="83" t="s">
-        <v>78</v>
-      </c>
       <c r="J10" s="67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="39">
         <v>2</v>
@@ -9916,7 +9916,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="45">
         <v>31</v>
@@ -9945,7 +9945,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="45">
         <v>61</v>
@@ -9974,7 +9974,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="45">
         <v>96</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="45">
         <v>89</v>
@@ -10032,7 +10032,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="45">
         <v>71</v>
@@ -10061,7 +10061,7 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="45">
         <v>69</v>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="45">
         <v>54</v>
@@ -10119,7 +10119,7 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="45">
         <v>38</v>
@@ -10148,7 +10148,7 @@
     </row>
     <row r="20" spans="2:10" ht="22.5">
       <c r="B20" s="89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="52">
         <v>15</v>
@@ -10177,7 +10177,7 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="59">
         <v>526</v>
@@ -10206,46 +10206,46 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="22.5">
       <c r="B28" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="D28" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="E28" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="83" t="s">
+      <c r="F28" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="83" t="s">
+      <c r="G28" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="83" t="s">
+      <c r="H28" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="84" t="s">
+      <c r="I28" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="83" t="s">
-        <v>78</v>
-      </c>
       <c r="J28" s="67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="39">
         <v>2</v>
@@ -10274,7 +10274,7 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="45">
         <v>30</v>
@@ -10303,7 +10303,7 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="45">
         <v>47</v>
@@ -10332,7 +10332,7 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="45">
         <v>54</v>
@@ -10361,7 +10361,7 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="45">
         <v>59</v>
@@ -10390,7 +10390,7 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="45">
         <v>69</v>
@@ -10419,7 +10419,7 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="45">
         <v>91</v>
@@ -10448,7 +10448,7 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="45">
         <v>101</v>
@@ -10477,7 +10477,7 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="45">
         <v>58</v>
@@ -10506,7 +10506,7 @@
     </row>
     <row r="38" spans="2:10" ht="22.5">
       <c r="B38" s="89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="52">
         <v>51</v>
@@ -10535,7 +10535,7 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="59">
         <v>562</v>

--- a/inputs/data_raw/Data_BART_Demographics_20190630.xlsx
+++ b/inputs/data_raw/Data_BART_Demographics_20190630.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_BART\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA33B29B-5A8F-4D5D-91BF-64E5BF3560BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8466A9B9-4A04-48FC-9D8F-52B217A420A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" tabRatio="723" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="723" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="actives_misc" sheetId="19" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="127">
   <si>
     <t>TOC</t>
   </si>
@@ -1196,6 +1196,9 @@
   <si>
     <t>benefit</t>
   </si>
+  <si>
+    <t>sum</t>
+  </si>
 </sst>
 </file>
 
@@ -1205,7 +1208,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0;&quot;$&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,6 +1315,14 @@
       <sz val="15.5"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1427,7 +1438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1728,6 +1739,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2501,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB403699-3710-4596-97B0-B33CB2C2CC4F}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4796,10 +4808,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F61A781-B9B1-4F2B-BAEA-4245EA889B53}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5754,44 +5766,408 @@
     </row>
     <row r="35" spans="6:16">
       <c r="F35" s="99"/>
+      <c r="G35">
+        <f>G7*G20</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:L35" si="0">H7*H20</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>20666</v>
+      </c>
       <c r="P35" s="15"/>
     </row>
     <row r="36" spans="6:16">
       <c r="F36" s="99"/>
+      <c r="G36">
+        <f t="shared" ref="G36:L50" si="1">G8*G21</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>60594</v>
+      </c>
     </row>
     <row r="37" spans="6:16">
       <c r="F37" s="99"/>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>1972</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>178960</v>
+      </c>
     </row>
     <row r="38" spans="6:16">
       <c r="F38" s="99"/>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>2380</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>132440</v>
+      </c>
     </row>
     <row r="39" spans="6:16">
       <c r="F39" s="99"/>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>77700</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>2187</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>4974</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>201030</v>
+      </c>
     </row>
     <row r="40" spans="6:16">
       <c r="F40" s="99"/>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>912030</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>8814</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>1444</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>23071</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>308730</v>
+      </c>
     </row>
     <row r="41" spans="6:16">
       <c r="F41" s="99"/>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>4971806</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>130192</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>28400</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>292158</v>
+      </c>
     </row>
     <row r="42" spans="6:16">
       <c r="F42" s="99"/>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>16214269</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>255430</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>14700</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>128184</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>720615</v>
+      </c>
+    </row>
+    <row r="43" spans="6:16">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>28421373</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>207647</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>1030</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>56202</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>1938699</v>
+      </c>
+    </row>
+    <row r="44" spans="6:16">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>32265558</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>351158</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>22788</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>105660</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>797</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>3347934</v>
+      </c>
+    </row>
+    <row r="45" spans="6:16">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>16671373</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>71508</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>2960</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>80066</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>2888152</v>
+      </c>
+    </row>
+    <row r="46" spans="6:16">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>8177603</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>104392</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>27552</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>1401532</v>
+      </c>
+    </row>
+    <row r="47" spans="6:16">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>4691156</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>38776</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>642</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>57072</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>1655933</v>
+      </c>
+    </row>
+    <row r="48" spans="6:16">
+      <c r="F48" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48">
+        <f>SUM(G35:G47)</f>
+        <v>112325168</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48:L48" si="2">SUM(H35:H47)</f>
+        <v>1245617</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>50143</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>506207</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>5771</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>13147443</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50">
+        <f>SUM(G48,J48:L48)</f>
+        <v>125984589</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51">
+        <f>I48+H48</f>
+        <v>1295760</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{4E4945F8-85AA-4C09-9CEC-835C946266DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FE28A6-DA79-4C04-860D-C3B0D186CA6A}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6739,6 +7115,373 @@
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
       <c r="P33" s="14"/>
+    </row>
+    <row r="35" spans="6:16">
+      <c r="G35">
+        <f>G7*G20</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:L35" si="0">H7*H20</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:16">
+      <c r="G36">
+        <f t="shared" ref="G36:L49" si="1">G8*G21</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:16">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>214480</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:16">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>306144</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:16">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>830790</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>147489</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:16">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>1215480</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>1238987</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>56000</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="41" spans="6:16">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>3480960</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>1063188</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>22401</v>
+      </c>
+    </row>
+    <row r="42" spans="6:16">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>2557224</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>920300</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:16">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>1971762</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>1048572</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>94512</v>
+      </c>
+    </row>
+    <row r="44" spans="6:16">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>1419314</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>798658</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>192605</v>
+      </c>
+    </row>
+    <row r="45" spans="6:16">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>304750</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>318720</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>164406</v>
+      </c>
+    </row>
+    <row r="46" spans="6:16">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>174660</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="47" spans="6:16">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>13219</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>13801</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="48" spans="6:16">
+      <c r="F48" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48">
+        <f>SUM(G35:G47)</f>
+        <v>11137369</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48:L48" si="2">SUM(H35:H47)</f>
+        <v>37</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>6753640</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>203489</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>563731</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/inputs/data_raw/Data_BART_Demographics_20190630.xlsx
+++ b/inputs/data_raw/Data_BART_Demographics_20190630.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_BART\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8466A9B9-4A04-48FC-9D8F-52B217A420A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52657F80-05E8-4CEA-82DC-7B056FB439F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="723" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" tabRatio="723" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="actives_misc" sheetId="19" r:id="rId1"/>
@@ -4808,10 +4808,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F61A781-B9B1-4F2B-BAEA-4245EA889B53}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6120,11 +6120,11 @@
         <v>112325168</v>
       </c>
       <c r="H48">
-        <f t="shared" ref="H48:L48" si="2">SUM(H35:H47)</f>
+        <f>SUM(H35:H47)</f>
         <v>1245617</v>
       </c>
       <c r="I48">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H48:L48" si="2">SUM(I35:I47)</f>
         <v>50143</v>
       </c>
       <c r="J48">
@@ -6150,6 +6150,12 @@
       <c r="G51">
         <f>I48+H48</f>
         <v>1295760</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7">
+      <c r="G52">
+        <f>G51/113</f>
+        <v>11466.902654867257</v>
       </c>
     </row>
   </sheetData>
@@ -6164,10 +6170,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FE28A6-DA79-4C04-860D-C3B0D186CA6A}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7481,6 +7487,18 @@
       <c r="L48">
         <f t="shared" si="2"/>
         <v>563731</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50">
+        <f>G48+J48+K48+L48</f>
+        <v>11904589</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51">
+        <f>SUM(H48:I48)</f>
+        <v>6753677</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/data_raw/Data_BART_Demographics_20190630.xlsx
+++ b/inputs/data_raw/Data_BART_Demographics_20190630.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_BART\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52657F80-05E8-4CEA-82DC-7B056FB439F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F2E975-EE7B-4003-B40C-ABA8867C1B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" tabRatio="723" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" tabRatio="723" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="actives_misc" sheetId="19" r:id="rId1"/>
@@ -1733,13 +1733,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4810,7 +4810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F61A781-B9B1-4F2B-BAEA-4245EA889B53}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
@@ -5795,7 +5795,7 @@
     <row r="36" spans="6:16">
       <c r="F36" s="99"/>
       <c r="G36">
-        <f t="shared" ref="G36:L50" si="1">G8*G21</f>
+        <f t="shared" ref="G36:L47" si="1">G8*G21</f>
         <v>0</v>
       </c>
       <c r="H36">
@@ -6112,7 +6112,7 @@
       </c>
     </row>
     <row r="48" spans="6:16">
-      <c r="F48" s="102" t="s">
+      <c r="F48" s="100" t="s">
         <v>126</v>
       </c>
       <c r="G48">
@@ -6124,7 +6124,7 @@
         <v>1245617</v>
       </c>
       <c r="I48">
-        <f t="shared" ref="H48:L48" si="2">SUM(I35:I47)</f>
+        <f t="shared" ref="I48:L48" si="2">SUM(I35:I47)</f>
         <v>50143</v>
       </c>
       <c r="J48">
@@ -6172,7 +6172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FE28A6-DA79-4C04-860D-C3B0D186CA6A}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
@@ -7150,7 +7150,7 @@
     </row>
     <row r="36" spans="6:16">
       <c r="G36">
-        <f t="shared" ref="G36:L49" si="1">G8*G21</f>
+        <f t="shared" ref="G36:L47" si="1">G8*G21</f>
         <v>0</v>
       </c>
       <c r="H36">
@@ -7859,13 +7859,13 @@
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="62"/>
       <c r="H20" s="62"/>
       <c r="I20" s="62"/>
@@ -7873,12 +7873,12 @@
     <row r="21" spans="2:9">
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
     </row>

--- a/inputs/data_raw/Data_BART_Demographics_20190630.xlsx
+++ b/inputs/data_raw/Data_BART_Demographics_20190630.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_BART\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F2E975-EE7B-4003-B40C-ABA8867C1B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C90DC29-A9DA-4E90-91BF-C885313742E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" tabRatio="723" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="actives_misc" sheetId="19" r:id="rId1"/>
@@ -2513,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB403699-3710-4596-97B0-B33CB2C2CC4F}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4810,8 +4810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F61A781-B9B1-4F2B-BAEA-4245EA889B53}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inputs/data_raw/Data_BART_Demographics_20190630.xlsx
+++ b/inputs/data_raw/Data_BART_Demographics_20190630.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_BART\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C90DC29-A9DA-4E90-91BF-C885313742E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1868AD-D95C-45AD-8F28-933E04E27A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1500" windowWidth="29040" windowHeight="15840" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="actives_misc" sheetId="19" r:id="rId1"/>
@@ -2511,15 +2511,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB403699-3710-4596-97B0-B33CB2C2CC4F}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3271,6 +3272,272 @@
       </c>
       <c r="L28" s="13">
         <v>103937</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="G30">
+        <f>G9*G19</f>
+        <v>3435640</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:L30" si="0">H9*H19</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="G31">
+        <f t="shared" ref="G31:L39" si="1">G10*G20</f>
+        <v>12546391</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>714924</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>22165348</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>5154510</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>771408</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>120844</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>26981852</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>8418740</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>3750320</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>1243632</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>104515</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>25226850</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>7453176</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>6178362</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>2948633</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>1970623</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>689325</v>
+      </c>
+    </row>
+    <row r="35" spans="7:12">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>19909749</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>6078800</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>6338574</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>6321024</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>6108291</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>3112256</v>
+      </c>
+    </row>
+    <row r="36" spans="7:12">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>14669920</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>6882120</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>7003200</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>7383780</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>11199210</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>9515364</v>
+      </c>
+    </row>
+    <row r="37" spans="7:12">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>14208051</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>5833292</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>7932844</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>7139181</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>11371920</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>12633543</v>
+      </c>
+    </row>
+    <row r="38" spans="7:12">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>7276494</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>4289754</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>5284950</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>6356984</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>8721088</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>10538744</v>
+      </c>
+    </row>
+    <row r="39" spans="7:12">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>1260112</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>1684160</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>3098884</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>3935280</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>5033650</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>5404724</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12">
+      <c r="G41">
+        <f>SUM(G30:L39)</f>
+        <v>356401036</v>
       </c>
     </row>
   </sheetData>
